--- a/output/fit_clients/fit_round_229.xlsx
+++ b/output/fit_clients/fit_round_229.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2483010145.410787</v>
+        <v>1598302005.061321</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1071374570959597</v>
+        <v>0.08485315041958431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03048564720622739</v>
+        <v>0.03616543462688022</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1241505133.250118</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2075608802.204958</v>
+        <v>1913098848.887936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1631710965029206</v>
+        <v>0.1839080019499029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04462541033963408</v>
+        <v>0.0375877454076437</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1037804452.857527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5054115798.254807</v>
+        <v>3906253252.621324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1513582861055696</v>
+        <v>0.1363961196051494</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0320592916633099</v>
+        <v>0.02831204893441499</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>83</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2527057987.965844</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3000503636.458687</v>
+        <v>3151403500.440937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09619869069052343</v>
+        <v>0.07795658922233513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04406145346011411</v>
+        <v>0.03531166630061083</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1500251888.058063</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1822975452.865157</v>
+        <v>2179487590.615198</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1444870379081127</v>
+        <v>0.1370483469001414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04689555037696366</v>
+        <v>0.04744089451507115</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>911487775.1740333</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2272350999.55261</v>
+        <v>1966380435.077879</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07421709221527323</v>
+        <v>0.06364823175872907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03892596763936876</v>
+        <v>0.03796974226553707</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1136175534.68914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2896970088.085466</v>
+        <v>2536270486.03283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2025591932433833</v>
+        <v>0.1721168361039632</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02251805212690288</v>
+        <v>0.02194242993552676</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1448485091.01395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1915625725.517666</v>
+        <v>1722546262.699846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1804690257466664</v>
+        <v>0.1321370997130722</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02642405946211044</v>
+        <v>0.02479826145092727</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>957812901.0549576</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5160891983.530659</v>
+        <v>5140686365.17971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.140539677945609</v>
+        <v>0.1382539258767973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0331940573745273</v>
+        <v>0.04833728255354743</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>96</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2580446103.512995</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2993995973.013713</v>
+        <v>3448723321.402912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1556542383462324</v>
+        <v>0.1356102262626711</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03250988599151188</v>
+        <v>0.04665922406026211</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>95</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1496997929.023035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2623761956.694899</v>
+        <v>2225507448.309505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1691567347938441</v>
+        <v>0.1904617921761316</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04166086162899648</v>
+        <v>0.03385564620830199</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1311880961.904451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4080774788.849184</v>
+        <v>5272931944.196827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08205451185926514</v>
+        <v>0.08615005664696866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0294113615402307</v>
+        <v>0.02516658568318384</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>77</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2040387445.238161</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2629640456.009364</v>
+        <v>2673603155.41602</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1674563440018562</v>
+        <v>0.1818375329521913</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02944867168392297</v>
+        <v>0.04007416780595439</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1314820289.248244</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1259710869.359304</v>
+        <v>1487288759.231908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.103792232465037</v>
+        <v>0.09753146010681354</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03805985484327739</v>
+        <v>0.041095566861922</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>629855465.6856183</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2140969814.925516</v>
+        <v>2329593374.772415</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08724937486629013</v>
+        <v>0.08683908585146399</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0395783835344583</v>
+        <v>0.03712381536997138</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1070484970.340024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4113004234.804614</v>
+        <v>5126429955.313876</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1597126122431352</v>
+        <v>0.1085112149717851</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04685542479414078</v>
+        <v>0.04592417016010292</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>67</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2056502146.426249</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2838884868.84878</v>
+        <v>2779591747.142543</v>
       </c>
       <c r="F18" t="n">
-        <v>0.168787356875921</v>
+        <v>0.1638119304566669</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0237851692674573</v>
+        <v>0.02163919313126344</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1419442476.299419</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>839524684.9381921</v>
+        <v>1085032423.269737</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1473540057584248</v>
+        <v>0.1467931675343118</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01797982534703287</v>
+        <v>0.02264707754852773</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>419762332.6259221</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1869076104.052377</v>
+        <v>2128199762.132177</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1452555795495065</v>
+        <v>0.1014071112778268</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02689223002121609</v>
+        <v>0.02788001920264447</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>934538092.3016791</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2467589452.557266</v>
+        <v>1838023741.244203</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06980783791200708</v>
+        <v>0.08167376973951633</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02891196543845558</v>
+        <v>0.04166653503857694</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1233794717.493122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3564841055.616542</v>
+        <v>3969616328.080942</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1438711118654197</v>
+        <v>0.135083728608144</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05649110843728064</v>
+        <v>0.04042712641272482</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>64</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1782420555.503309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1031446607.92154</v>
+        <v>1448433846.721002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1305329868282965</v>
+        <v>0.1724983334890383</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04768197496774086</v>
+        <v>0.04178172531429145</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>515723368.826061</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2950374757.487956</v>
+        <v>4005436346.512467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1302644640129831</v>
+        <v>0.1144212085488341</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02434833176224866</v>
+        <v>0.03116015996243618</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1475187417.319104</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1171461281.64753</v>
+        <v>1112907355.383152</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1144746158633874</v>
+        <v>0.09419955830740191</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03061572573630853</v>
+        <v>0.02289366664709319</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>585730665.3497719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1152896918.139003</v>
+        <v>993699386.6022272</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1064166981722742</v>
+        <v>0.09390327246534004</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02856493671763649</v>
+        <v>0.03280645351535654</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>576448468.6160635</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3440672208.264215</v>
+        <v>3019970069.038744</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1330488327276926</v>
+        <v>0.1242299415188945</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02591050033405465</v>
+        <v>0.02586174587413316</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1720336142.041363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3112782468.770227</v>
+        <v>2595084688.590629</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1104567029868656</v>
+        <v>0.142405855442286</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0430308762600491</v>
+        <v>0.04442459323232855</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1556391255.379378</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3745989189.934723</v>
+        <v>4776551141.416413</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1249136466133392</v>
+        <v>0.1454043189486665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03628231401421265</v>
+        <v>0.02827042918494258</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>102</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1872994629.373587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1512083013.707774</v>
+        <v>2208455963.27417</v>
       </c>
       <c r="F30" t="n">
-        <v>0.13521731191624</v>
+        <v>0.1254599126957451</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0330824085707444</v>
+        <v>0.03670257650329679</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>756041488.7632694</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1257615753.843657</v>
+        <v>1297939212.161341</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08768850008808411</v>
+        <v>0.07513226053511267</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05174763709638126</v>
+        <v>0.04749542347156659</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>628807814.8178352</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1660073482.303412</v>
+        <v>1847072624.975019</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1115002689266852</v>
+        <v>0.1034715352754317</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03320321737635109</v>
+        <v>0.02498018133859619</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>830036842.6597893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2922279470.806774</v>
+        <v>1965392653.918404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1940116633889274</v>
+        <v>0.2009110011689461</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04708541229674738</v>
+        <v>0.03981391758941605</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>67</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1461139737.627663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1333492216.953877</v>
+        <v>1451746844.755939</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08969448524785441</v>
+        <v>0.08340635338499912</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01791481013386435</v>
+        <v>0.02765786778019304</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>666746091.6303271</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1308899964.339978</v>
+        <v>1287264012.280992</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08502336022640179</v>
+        <v>0.1023496640687307</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04415252864155165</v>
+        <v>0.03840558420370512</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>654449933.0010744</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2317385590.657727</v>
+        <v>2229469451.472614</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1292107297898411</v>
+        <v>0.1766764132120126</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0259589556259224</v>
+        <v>0.01835370824799825</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1158692831.92183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2254003591.156924</v>
+        <v>1944824558.164908</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1031460898419751</v>
+        <v>0.1102209738150989</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03221653097855023</v>
+        <v>0.04203994641145122</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>60</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1127001857.795243</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1492554055.277611</v>
+        <v>1553923647.215092</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07503909459892236</v>
+        <v>0.09233478334537763</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0332260432870904</v>
+        <v>0.03755784044965101</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>746277077.9344887</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1595179930.921449</v>
+        <v>1720700384.305656</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1700177927620677</v>
+        <v>0.1411246487797457</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02799770511609947</v>
+        <v>0.02331886379495214</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>797590021.4237854</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1466420767.689503</v>
+        <v>1200791403.932082</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1384221482611855</v>
+        <v>0.1344619940886619</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0522100053435727</v>
+        <v>0.0410016947732729</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>733210358.4320133</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2216421820.721776</v>
+        <v>2588037578.316055</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1432581502204478</v>
+        <v>0.1531891371676454</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03848480026725659</v>
+        <v>0.03651244772739221</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>54</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1108210963.354575</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4346523370.417778</v>
+        <v>2805934647.289715</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1188894502849659</v>
+        <v>0.09379389742010978</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03658968974236632</v>
+        <v>0.03650553549559356</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2173261738.310147</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1895039087.01136</v>
+        <v>2332522282.110424</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1967729827392493</v>
+        <v>0.1848915663258785</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0186585629620817</v>
+        <v>0.02377876701832932</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>80</v>
-      </c>
-      <c r="J43" t="n">
-        <v>947519652.9969887</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2249644240.823369</v>
+        <v>1964234052.185233</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06353026812463762</v>
+        <v>0.07164995997766355</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03136715445737791</v>
+        <v>0.03668899687036207</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1124822276.54353</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1614541448.821622</v>
+        <v>2215529339.95208</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1899416926969814</v>
+        <v>0.1394315158780168</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04823320131087314</v>
+        <v>0.03927665304183513</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>807270676.4489754</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5158872390.083802</v>
+        <v>3568704725.433487</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1287117785767607</v>
+        <v>0.1603088905621065</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05772931620254292</v>
+        <v>0.0581273577862104</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>81</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2579436230.921999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3567852995.185879</v>
+        <v>4118592441.229149</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1892657846967123</v>
+        <v>0.1366538152204452</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05537621202090413</v>
+        <v>0.04488791153097284</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>61</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1783926472.223103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4181198985.923347</v>
+        <v>3331149758.293771</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08781154201921973</v>
+        <v>0.0723443113088393</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02671326932198688</v>
+        <v>0.02673261019602813</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2090599516.774663</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1541350986.253082</v>
+        <v>1281499527.104487</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1369693708582658</v>
+        <v>0.1229888504595868</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03058169003098359</v>
+        <v>0.03618760192496288</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>770675518.7177474</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3830084537.116746</v>
+        <v>2945638236.546341</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1495856964455144</v>
+        <v>0.1319621190099766</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04068891436412933</v>
+        <v>0.03782848906853605</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>78</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1915042269.310333</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083821626.045455</v>
+        <v>1106735656.17085</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1887782015676416</v>
+        <v>0.195071262374777</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04318335960229705</v>
+        <v>0.04737095144626714</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>541910883.3764691</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3742028913.27436</v>
+        <v>3731285588.731749</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1357060150657416</v>
+        <v>0.114553888887867</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06068213713048006</v>
+        <v>0.04736899186695394</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>94</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1871014528.287099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2634896550.504452</v>
+        <v>2440476471.048764</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1526133731918617</v>
+        <v>0.1716391907026808</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02500751062105191</v>
+        <v>0.02539803999107793</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>65</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1317448332.910742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4675283525.162986</v>
+        <v>3129097403.888491</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1615744240943804</v>
+        <v>0.1422085646094541</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05084711549160623</v>
+        <v>0.04217050645372694</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2337641879.677538</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3738867939.401974</v>
+        <v>4831226061.623672</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1385945097286048</v>
+        <v>0.1443360339366108</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03215321234400474</v>
+        <v>0.03129555154927626</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1869433933.101338</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1850254795.290067</v>
+        <v>1287011675.778276</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1539557822744584</v>
+        <v>0.1455169642452564</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0518712816016574</v>
+        <v>0.04325996502652484</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>925127388.0107573</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2899488882.125997</v>
+        <v>4482912675.702257</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1786572765317644</v>
+        <v>0.1620897598341099</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01971310106043163</v>
+        <v>0.01773612239943631</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1449744437.005406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1723504241.356072</v>
+        <v>1373792571.546613</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1658090208608222</v>
+        <v>0.1943633285722663</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02455995442331105</v>
+        <v>0.02400517293506267</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>861752131.4082086</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5032534920.480904</v>
+        <v>4875940209.95965</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1128871610218706</v>
+        <v>0.1162859597246483</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03117384211249575</v>
+        <v>0.04512161131012807</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2516267386.369383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2763493991.027571</v>
+        <v>2812661179.914887</v>
       </c>
       <c r="F60" t="n">
-        <v>0.191257824686051</v>
+        <v>0.2012578253858069</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03303081603138892</v>
+        <v>0.02964920127028686</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1381747041.040843</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2691138490.810699</v>
+        <v>2808084602.913854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.114118601772105</v>
+        <v>0.1766820719258518</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02537813085215512</v>
+        <v>0.02292618105031086</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1345569254.99127</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1421723720.370929</v>
+        <v>1918418491.697607</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1426515751307883</v>
+        <v>0.1192319317703829</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04060151486485538</v>
+        <v>0.04230268634915731</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>710861831.4822117</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4587933124.429484</v>
+        <v>5354760042.075259</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07294575894078259</v>
+        <v>0.06676198258191023</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03655674078740929</v>
+        <v>0.03003519903822627</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2293966598.369012</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4861841662.500978</v>
+        <v>4509397577.949385</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1790036011803731</v>
+        <v>0.1502391252703771</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03219023515246709</v>
+        <v>0.03335128507884847</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>71</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2430920927.720592</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3835511455.890742</v>
+        <v>5635588794.833168</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1158131555268174</v>
+        <v>0.1101570327750967</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03173169828268484</v>
+        <v>0.02705119447217216</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1917755756.326164</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3651873069.477783</v>
+        <v>5023029967.561727</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1047784456513754</v>
+        <v>0.1160307960292646</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04801993923197562</v>
+        <v>0.04570922910170866</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>66</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1825936489.624319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2445935814.195022</v>
+        <v>3336534153.228949</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08002030399971261</v>
+        <v>0.07596124866860843</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04793769939961637</v>
+        <v>0.03716904481115816</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>73</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1222967972.2786</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4635935269.687123</v>
+        <v>5096207165.234408</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1366109786014125</v>
+        <v>0.154269901438511</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04241726140476481</v>
+        <v>0.05116748071794399</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>75</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2317967669.155226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1886048527.301036</v>
+        <v>1806979607.431661</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1301085647507384</v>
+        <v>0.159163583641567</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0541880487358492</v>
+        <v>0.05163471762717264</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>943024253.8454039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2490121640.674324</v>
+        <v>3202998587.137914</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0803471608442589</v>
+        <v>0.1033290025788197</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04627120791253502</v>
+        <v>0.03253407827656546</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>65</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1245060764.092178</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4382537339.92233</v>
+        <v>3999576888.64408</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1646456159264935</v>
+        <v>0.1778141415874118</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02737957467463709</v>
+        <v>0.02643377289395751</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>83</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2191268729.53262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1693539467.985411</v>
+        <v>2039047204.112608</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08311278669838384</v>
+        <v>0.06821838839580416</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03593952614617027</v>
+        <v>0.03962893444595258</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>846769729.7499807</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3475303839.699831</v>
+        <v>3279918276.062717</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09535004649162886</v>
+        <v>0.08439793239448459</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03733841433876258</v>
+        <v>0.05216429154248823</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1737651872.302658</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3233959021.275354</v>
+        <v>3772119757.78316</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1188833274548132</v>
+        <v>0.1362580455721712</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02363884422552965</v>
+        <v>0.03536199611586575</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>78</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1616979555.762737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1732153265.358133</v>
+        <v>2022939724.757941</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1669583968310957</v>
+        <v>0.1045431349360799</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0310914463665325</v>
+        <v>0.02725728835586632</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>866076622.0217495</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4317751103.923716</v>
+        <v>4273827741.352405</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1154141860753009</v>
+        <v>0.07716051783994365</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03280493525813125</v>
+        <v>0.03039808481073111</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2158875549.990511</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1812486008.751799</v>
+        <v>1617345113.262368</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1357262963214406</v>
+        <v>0.1142321391203778</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02787292428805179</v>
+        <v>0.02335064186917567</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>906243038.1911154</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4392164173.700225</v>
+        <v>4104591070.196155</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09510635257602815</v>
+        <v>0.1038467382409859</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05240030553381989</v>
+        <v>0.04255181358654839</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>79</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2196082024.476143</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1636277477.548643</v>
+        <v>1290108717.565708</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1150573633888329</v>
+        <v>0.1265158657570148</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02600258769116507</v>
+        <v>0.04062096990596368</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>818138796.8005619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3829126120.724217</v>
+        <v>5176833245.381684</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103375050144218</v>
+        <v>0.08349722562859817</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03417372837449055</v>
+        <v>0.03014853365242668</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>48</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1914563051.315876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3636267057.585641</v>
+        <v>4988706497.823329</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08738637995663485</v>
+        <v>0.09597598876458735</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02297072284433295</v>
+        <v>0.02100355629082801</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>53</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1818133478.500849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4703512356.452941</v>
+        <v>5583747567.334558</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1502227701710091</v>
+        <v>0.1893820643719813</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02848266052360197</v>
+        <v>0.02424920217036384</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>84</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2351756178.681316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2401955887.31719</v>
+        <v>1839353845.86268</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1544873528347502</v>
+        <v>0.09749539452331905</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0361237217186469</v>
+        <v>0.03818977145018948</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1200977979.01956</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2492263065.209989</v>
+        <v>2474847921.860647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1067265776901056</v>
+        <v>0.1156049146920024</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03193827258033882</v>
+        <v>0.05103266778453272</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1246131465.483954</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2905377615.167668</v>
+        <v>2364948168.724218</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1398247882642239</v>
+        <v>0.1852362006418956</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03573941761183478</v>
+        <v>0.04038128491092131</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>86</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1452688857.26242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2559823767.969685</v>
+        <v>2388636766.815014</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1354317924005898</v>
+        <v>0.1100546866332518</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01859680833372468</v>
+        <v>0.02387601741524965</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1279911989.424842</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1183795853.317591</v>
+        <v>1507502384.226002</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1367311885915743</v>
+        <v>0.1383730740268392</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04172837435643915</v>
+        <v>0.03451675470535627</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>591897978.0750458</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2840640148.063601</v>
+        <v>2428163912.640433</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1307915256365854</v>
+        <v>0.162707587319544</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0312579706421694</v>
+        <v>0.02974224328656185</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>90</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1420320088.722152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3307312341.749091</v>
+        <v>2717463880.519113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1123388618735424</v>
+        <v>0.1354917924259252</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02957433757079147</v>
+        <v>0.02905916008378195</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>77</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1653656186.437162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1758493835.905432</v>
+        <v>1971548426.555238</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09341973818826144</v>
+        <v>0.1052847962060923</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05473660695558129</v>
+        <v>0.04695881900586573</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>879246943.9562819</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1955906108.907299</v>
+        <v>1600715183.143827</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1406566870243832</v>
+        <v>0.1587749605638892</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05354344422346873</v>
+        <v>0.04321311882215655</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>977953032.5729886</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2464004506.900125</v>
+        <v>2001018113.909086</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07607467660521385</v>
+        <v>0.1080169586477649</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04236003355508218</v>
+        <v>0.03072939987953235</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1232002234.660354</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4574896641.496722</v>
+        <v>4055542489.235029</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1159248033829291</v>
+        <v>0.1141452851705646</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04996394626331495</v>
+        <v>0.03711342173561025</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2287448284.181658</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2022567465.794599</v>
+        <v>1624654043.689213</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1087486975319757</v>
+        <v>0.1349902530361203</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03713715147328665</v>
+        <v>0.02698607651675854</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1011283734.225324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2005924843.88549</v>
+        <v>3203370898.848856</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1231900532726188</v>
+        <v>0.1194232625554246</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05014254143978054</v>
+        <v>0.04623068885513373</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1002962493.951849</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1934528167.615708</v>
+        <v>2035667591.992354</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238022806692564</v>
+        <v>0.1372912718939703</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03730032090785014</v>
+        <v>0.04109045263120559</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>967264077.7625146</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3324108037.741906</v>
+        <v>4560638547.916352</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1671738419022684</v>
+        <v>0.1711293079595503</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02898893609091941</v>
+        <v>0.02698132321478748</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1662054020.881695</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3552255328.394422</v>
+        <v>3225775248.410096</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1050515335392318</v>
+        <v>0.1092833629577568</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03240785558126837</v>
+        <v>0.03128154286715834</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1776127686.319431</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3244240674.877164</v>
+        <v>2790744301.116915</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1217265896610657</v>
+        <v>0.1055085753752655</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0266266283980267</v>
+        <v>0.02900887172660726</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1622120341.059202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4478728140.855632</v>
+        <v>3952626887.151102</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1795590545313279</v>
+        <v>0.1520695310584436</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02011116520968917</v>
+        <v>0.01934595211028408</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2239364179.297286</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2568146509.770955</v>
+        <v>3356218693.432829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2034438171024106</v>
+        <v>0.1808561846717255</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04940939494849922</v>
+        <v>0.04539653193751182</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>93</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1284073286.863169</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_229.xlsx
+++ b/output/fit_clients/fit_round_229.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1598302005.061321</v>
+        <v>1843461390.889622</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08485315041958431</v>
+        <v>0.1126739376695454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03616543462688022</v>
+        <v>0.03117321639773537</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1913098848.887936</v>
+        <v>2279383137.490668</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1839080019499029</v>
+        <v>0.1336673372348147</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0375877454076437</v>
+        <v>0.04925795538228685</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3906253252.621324</v>
+        <v>3437061420.841063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1363961196051494</v>
+        <v>0.1027730174976507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02831204893441499</v>
+        <v>0.0274586550587783</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3151403500.440937</v>
+        <v>2660341087.934297</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07795658922233513</v>
+        <v>0.08303714478798105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03531166630061083</v>
+        <v>0.04960628730991998</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2179487590.615198</v>
+        <v>2302680076.463152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1370483469001414</v>
+        <v>0.1325836416408022</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04744089451507115</v>
+        <v>0.05051652857754298</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1966380435.077879</v>
+        <v>3114460182.138836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06364823175872907</v>
+        <v>0.07049480100378896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03796974226553707</v>
+        <v>0.04542396301667986</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2536270486.03283</v>
+        <v>3878112992.309679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1721168361039632</v>
+        <v>0.1389700945580414</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02194242993552676</v>
+        <v>0.03335680022582852</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1722546262.699846</v>
+        <v>2048250158.372306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1321370997130722</v>
+        <v>0.1354206161573859</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02479826145092727</v>
+        <v>0.0230484838401989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5140686365.17971</v>
+        <v>5470548918.887932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1382539258767973</v>
+        <v>0.1409033491806613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04833728255354743</v>
+        <v>0.03435281307795653</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3448723321.402912</v>
+        <v>3136445198.38096</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1356102262626711</v>
+        <v>0.1215567438088988</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04665922406026211</v>
+        <v>0.04373775295540915</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2225507448.309505</v>
+        <v>2005034647.150967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1904617921761316</v>
+        <v>0.1967644180713006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03385564620830199</v>
+        <v>0.03623800564054092</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5272931944.196827</v>
+        <v>5322541631.851098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08615005664696866</v>
+        <v>0.0817389644384182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02516658568318384</v>
+        <v>0.02308812382744747</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2673603155.41602</v>
+        <v>2996172856.821061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1818375329521913</v>
+        <v>0.1273774408262514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04007416780595439</v>
+        <v>0.02864192821517782</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1487288759.231908</v>
+        <v>1447709378.236104</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09753146010681354</v>
+        <v>0.09400523689328655</v>
       </c>
       <c r="G15" t="n">
-        <v>0.041095566861922</v>
+        <v>0.03915970385932833</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2329593374.772415</v>
+        <v>2605985555.671875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08683908585146399</v>
+        <v>0.09694153962597593</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03712381536997138</v>
+        <v>0.04915878656078154</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5126429955.313876</v>
+        <v>3460626982.222368</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1085112149717851</v>
+        <v>0.1232950886904283</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04592417016010292</v>
+        <v>0.04432976408116329</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2779591747.142543</v>
+        <v>2852175285.07796</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638119304566669</v>
+        <v>0.11530231904809</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02163919313126344</v>
+        <v>0.03214722789958622</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1085032423.269737</v>
+        <v>1056655242.939569</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1467931675343118</v>
+        <v>0.1541850009166576</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02264707754852773</v>
+        <v>0.02130753219378705</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2128199762.132177</v>
+        <v>2056756394.318383</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1014071112778268</v>
+        <v>0.1213998004758471</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02788001920264447</v>
+        <v>0.0288125135838138</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1838023741.244203</v>
+        <v>2607054899.256769</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08167376973951633</v>
+        <v>0.06436983972318867</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04166653503857694</v>
+        <v>0.03617577400765912</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3969616328.080942</v>
+        <v>2448161795.484381</v>
       </c>
       <c r="F22" t="n">
-        <v>0.135083728608144</v>
+        <v>0.1389242090450049</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04042712641272482</v>
+        <v>0.03622349638405715</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1448433846.721002</v>
+        <v>1445956604.077388</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1724983334890383</v>
+        <v>0.117864564632206</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04178172531429145</v>
+        <v>0.03820839607369707</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4005436346.512467</v>
+        <v>3950604216.97582</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1144212085488341</v>
+        <v>0.1178900177364706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03116015996243618</v>
+        <v>0.0360560254163459</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1112907355.383152</v>
+        <v>1013848275.410811</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09419955830740191</v>
+        <v>0.0953656036322262</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02289366664709319</v>
+        <v>0.03006151662046032</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>993699386.6022272</v>
+        <v>1230610552.120483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09390327246534004</v>
+        <v>0.1219969123838845</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03280645351535654</v>
+        <v>0.02817510832330443</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3019970069.038744</v>
+        <v>3407321560.571946</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1242299415188945</v>
+        <v>0.1349058446689738</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02586174587413316</v>
+        <v>0.02188960334950822</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2595084688.590629</v>
+        <v>2615835772.030085</v>
       </c>
       <c r="F28" t="n">
-        <v>0.142405855442286</v>
+        <v>0.1426782880404497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04442459323232855</v>
+        <v>0.03976807008828342</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4776551141.416413</v>
+        <v>5604119438.895182</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1454043189486665</v>
+        <v>0.1180546543040251</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02827042918494258</v>
+        <v>0.03988598507970637</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2208455963.27417</v>
+        <v>1974846068.830705</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1254599126957451</v>
+        <v>0.1361652161514105</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03670257650329679</v>
+        <v>0.03990232579131549</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1297939212.161341</v>
+        <v>931640654.179828</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07513226053511267</v>
+        <v>0.1019653412723957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04749542347156659</v>
+        <v>0.05196432860044235</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1847072624.975019</v>
+        <v>1321481914.610765</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1034715352754317</v>
+        <v>0.1123643559162566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02498018133859619</v>
+        <v>0.03760931198611736</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1965392653.918404</v>
+        <v>2670775473.588761</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2009110011689461</v>
+        <v>0.1457508524866371</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03981391758941605</v>
+        <v>0.04319850598335995</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1451746844.755939</v>
+        <v>1246062811.068117</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08340635338499912</v>
+        <v>0.1007373404998986</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02765786778019304</v>
+        <v>0.02081479633286075</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1287264012.280992</v>
+        <v>953183040.7886059</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1023496640687307</v>
+        <v>0.1185069832609006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03840558420370512</v>
+        <v>0.04173651011362783</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2229469451.472614</v>
+        <v>2145678412.47775</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1766764132120126</v>
+        <v>0.1634460652748131</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01835370824799825</v>
+        <v>0.02747936088477976</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1944824558.164908</v>
+        <v>2584974544.626088</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1102209738150989</v>
+        <v>0.09608285379399888</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04203994641145122</v>
+        <v>0.04148286190198439</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1553923647.215092</v>
+        <v>1333947403.52492</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09233478334537763</v>
+        <v>0.107099114844581</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03755784044965101</v>
+        <v>0.03278568919990033</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1720700384.305656</v>
+        <v>1696568060.735197</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1411246487797457</v>
+        <v>0.123687873435856</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02331886379495214</v>
+        <v>0.02226710389888302</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1200791403.932082</v>
+        <v>1600510541.495981</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1344619940886619</v>
+        <v>0.1590633675614659</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0410016947732729</v>
+        <v>0.05829439257843014</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2588037578.316055</v>
+        <v>1840344676.602835</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1531891371676454</v>
+        <v>0.1485945719694087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03651244772739221</v>
+        <v>0.0323965259502053</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2805934647.289715</v>
+        <v>3455367330.19283</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09379389742010978</v>
+        <v>0.1214109718782397</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03650553549559356</v>
+        <v>0.02810923178622871</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2332522282.110424</v>
+        <v>2722429196.508867</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1848915663258785</v>
+        <v>0.1601328927786792</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02377876701832932</v>
+        <v>0.02203094160028554</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1964234052.185233</v>
+        <v>2082556557.462202</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07164995997766355</v>
+        <v>0.07067977372515793</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03668899687036207</v>
+        <v>0.02545946694214671</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2215529339.95208</v>
+        <v>2307071146.281423</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1394315158780168</v>
+        <v>0.1588891580593151</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03927665304183513</v>
+        <v>0.05081933573619503</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3568704725.433487</v>
+        <v>3715969430.993244</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1603088905621065</v>
+        <v>0.1601422313444922</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0581273577862104</v>
+        <v>0.03776420065875751</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4118592441.229149</v>
+        <v>4364787904.264325</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1366538152204452</v>
+        <v>0.168824377456726</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04488791153097284</v>
+        <v>0.04844520513055366</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3331149758.293771</v>
+        <v>4151120790.202124</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0723443113088393</v>
+        <v>0.09756728963501783</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02673261019602813</v>
+        <v>0.02513071921101258</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1281499527.104487</v>
+        <v>1419436848.997026</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1229888504595868</v>
+        <v>0.1949396828452927</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03618760192496288</v>
+        <v>0.03566580047624601</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2945638236.546341</v>
+        <v>3964759459.333607</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1319621190099766</v>
+        <v>0.1359981241194781</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03782848906853605</v>
+        <v>0.05308275461732827</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1106735656.17085</v>
+        <v>1097019680.601602</v>
       </c>
       <c r="F51" t="n">
-        <v>0.195071262374777</v>
+        <v>0.1476611943674655</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04737095144626714</v>
+        <v>0.04522553516971719</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3731285588.731749</v>
+        <v>3327342142.186108</v>
       </c>
       <c r="F52" t="n">
-        <v>0.114553888887867</v>
+        <v>0.1358100442933198</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04736899186695394</v>
+        <v>0.05950681635609723</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2440476471.048764</v>
+        <v>2771954284.380414</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1716391907026808</v>
+        <v>0.199057019051864</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02539803999107793</v>
+        <v>0.03495508714913326</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3129097403.888491</v>
+        <v>3552072918.049135</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1422085646094541</v>
+        <v>0.1639822546561528</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04217050645372694</v>
+        <v>0.05175746899568041</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4831226061.623672</v>
+        <v>3108227708.916978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1443360339366108</v>
+        <v>0.1587110376967438</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03129555154927626</v>
+        <v>0.0317546437980261</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1287011675.778276</v>
+        <v>1302079011.984029</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455169642452564</v>
+        <v>0.1542970734217994</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04325996502652484</v>
+        <v>0.05321985436239642</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4482912675.702257</v>
+        <v>3583536218.830616</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1620897598341099</v>
+        <v>0.1755004176627087</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01773612239943631</v>
+        <v>0.01795932993479575</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1373792571.546613</v>
+        <v>1651549393.327662</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1943633285722663</v>
+        <v>0.1550205513011458</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02400517293506267</v>
+        <v>0.03859802213175482</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4875940209.95965</v>
+        <v>3996661924.267931</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1162859597246483</v>
+        <v>0.08568030729949888</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04512161131012807</v>
+        <v>0.03220915581472332</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2812661179.914887</v>
+        <v>2970503580.451939</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2012578253858069</v>
+        <v>0.1647031179265528</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02964920127028686</v>
+        <v>0.02891930313579446</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2808084602.913854</v>
+        <v>2305464190.379154</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1766820719258518</v>
+        <v>0.1514048321497344</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02292618105031086</v>
+        <v>0.02573544325853894</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1918418491.697607</v>
+        <v>1280359739.333906</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1192319317703829</v>
+        <v>0.1528008288758508</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04230268634915731</v>
+        <v>0.04672005307301336</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5354760042.075259</v>
+        <v>5098412752.392752</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06676198258191023</v>
+        <v>0.1041923418817381</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03003519903822627</v>
+        <v>0.03062104940598539</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4509397577.949385</v>
+        <v>3757606052.48309</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1502391252703771</v>
+        <v>0.1856732537218326</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03335128507884847</v>
+        <v>0.03543524756482673</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5635588794.833168</v>
+        <v>3754548989.932411</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1101570327750967</v>
+        <v>0.1060403639132199</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02705119447217216</v>
+        <v>0.02685572620965851</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5023029967.561727</v>
+        <v>4663801146.260953</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1160307960292646</v>
+        <v>0.1329566064036005</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04570922910170866</v>
+        <v>0.03465593917660186</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3336534153.228949</v>
+        <v>2517632414.128927</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07596124866860843</v>
+        <v>0.09816175284244237</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03716904481115816</v>
+        <v>0.03638326906328695</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5096207165.234408</v>
+        <v>5891954060.451653</v>
       </c>
       <c r="F68" t="n">
-        <v>0.154269901438511</v>
+        <v>0.1453038459911532</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05116748071794399</v>
+        <v>0.03426647518200829</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1806979607.431661</v>
+        <v>1994599327.315723</v>
       </c>
       <c r="F69" t="n">
-        <v>0.159163583641567</v>
+        <v>0.1543184258934354</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05163471762717264</v>
+        <v>0.04281905950889772</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3202998587.137914</v>
+        <v>2959734782.843138</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1033290025788197</v>
+        <v>0.08387771618288667</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03253407827656546</v>
+        <v>0.03939784472571537</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3999576888.64408</v>
+        <v>3451288643.972063</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1778141415874118</v>
+        <v>0.1320325010021556</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02643377289395751</v>
+        <v>0.02545218457057266</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2039047204.112608</v>
+        <v>2261716071.755937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06821838839580416</v>
+        <v>0.09252324944238438</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03962893444595258</v>
+        <v>0.03735180283934202</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3279918276.062717</v>
+        <v>3453783764.446635</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08439793239448459</v>
+        <v>0.1017945125375088</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05216429154248823</v>
+        <v>0.0446904152280264</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3772119757.78316</v>
+        <v>2737366695.27842</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1362580455721712</v>
+        <v>0.1426555362587215</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03536199611586575</v>
+        <v>0.03510184852697484</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2022939724.757941</v>
+        <v>2400043147.309622</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1045431349360799</v>
+        <v>0.159190033348539</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02725728835586632</v>
+        <v>0.02362105222461601</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4273827741.352405</v>
+        <v>5103464064.787005</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07716051783994365</v>
+        <v>0.116648479601105</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03039808481073111</v>
+        <v>0.02972332073272449</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1617345113.262368</v>
+        <v>1661119814.596815</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1142321391203778</v>
+        <v>0.1333308406174981</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02335064186917567</v>
+        <v>0.02668175210485176</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4104591070.196155</v>
+        <v>2909620324.310915</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1038467382409859</v>
+        <v>0.1221123153160079</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04255181358654839</v>
+        <v>0.03604733002180328</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1290108717.565708</v>
+        <v>1540811015.914038</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1265158657570148</v>
+        <v>0.1407277056264009</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04062096990596368</v>
+        <v>0.02448136665763151</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5176833245.381684</v>
+        <v>4624476520.475302</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08349722562859817</v>
+        <v>0.07448830385566792</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03014853365242668</v>
+        <v>0.03817469252405475</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4988706497.823329</v>
+        <v>4804666820.043305</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09597598876458735</v>
+        <v>0.08892029819191381</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02100355629082801</v>
+        <v>0.02966687416355138</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5583747567.334558</v>
+        <v>5233950089.752526</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1893820643719813</v>
+        <v>0.2163329751227714</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02424920217036384</v>
+        <v>0.02593008388130252</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1839353845.86268</v>
+        <v>2135128930.972599</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09749539452331905</v>
+        <v>0.1581578937150182</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03818977145018948</v>
+        <v>0.03834717270935386</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2474847921.860647</v>
+        <v>2029181271.630154</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156049146920024</v>
+        <v>0.1202112555619181</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05103266778453272</v>
+        <v>0.03282161081342196</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2364948168.724218</v>
+        <v>3516706165.263745</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1852362006418956</v>
+        <v>0.167526820096514</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04038128491092131</v>
+        <v>0.04937369787777247</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2388636766.815014</v>
+        <v>2035470955.059232</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1100546866332518</v>
+        <v>0.1648400598645552</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02387601741524965</v>
+        <v>0.02060306015921323</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1507502384.226002</v>
+        <v>1343707316.81781</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1383730740268392</v>
+        <v>0.1385549322916748</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03451675470535627</v>
+        <v>0.02972990005162531</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2428163912.640433</v>
+        <v>2558342420.70811</v>
       </c>
       <c r="F88" t="n">
-        <v>0.162707587319544</v>
+        <v>0.1188427076401317</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02974224328656185</v>
+        <v>0.02603777612388568</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2717463880.519113</v>
+        <v>2944136631.796453</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1354917924259252</v>
+        <v>0.1385096400942833</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02905916008378195</v>
+        <v>0.03482780202720168</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1971548426.555238</v>
+        <v>2027814297.545165</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1052847962060923</v>
+        <v>0.1072518496747674</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04695881900586573</v>
+        <v>0.03681687243265491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1600715183.143827</v>
+        <v>1524734842.774764</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1587749605638892</v>
+        <v>0.1747863774556269</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04321311882215655</v>
+        <v>0.04784299942526803</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2001018113.909086</v>
+        <v>1920878480.276304</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1080169586477649</v>
+        <v>0.1077706645913521</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03072939987953235</v>
+        <v>0.03191824201763761</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4055542489.235029</v>
+        <v>3379438142.238233</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1141452851705646</v>
+        <v>0.1223003839641306</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03711342173561025</v>
+        <v>0.04103899182205446</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1624654043.689213</v>
+        <v>1783219256.383466</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1349902530361203</v>
+        <v>0.1370478886938979</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02698607651675854</v>
+        <v>0.04074523266619012</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3203370898.848856</v>
+        <v>2644840011.131465</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1194232625554246</v>
+        <v>0.1116578158271378</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04623068885513373</v>
+        <v>0.03553017716277298</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2035667591.992354</v>
+        <v>1602668510.155355</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1372912718939703</v>
+        <v>0.1324711726879529</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04109045263120559</v>
+        <v>0.03832574898580727</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4560638547.916352</v>
+        <v>4316598069.905446</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1711293079595503</v>
+        <v>0.1764119756990033</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02698132321478748</v>
+        <v>0.02513525914214952</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3225775248.410096</v>
+        <v>3365380370.156023</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1092833629577568</v>
+        <v>0.1039230883839061</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03128154286715834</v>
+        <v>0.02986678629334509</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2790744301.116915</v>
+        <v>2450798109.177679</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1055085753752655</v>
+        <v>0.11628537817611</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02900887172660726</v>
+        <v>0.02819096655709065</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3952626887.151102</v>
+        <v>4701696298.176951</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1520695310584436</v>
+        <v>0.1719065132907864</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01934595211028408</v>
+        <v>0.02282143036244597</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3356218693.432829</v>
+        <v>3061981858.757071</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1808561846717255</v>
+        <v>0.1709754665923612</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04539653193751182</v>
+        <v>0.04324208673408116</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_229.xlsx
+++ b/output/fit_clients/fit_round_229.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1843461390.889622</v>
+        <v>2293291718.627645</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1126739376695454</v>
+        <v>0.1064376146322115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03117321639773537</v>
+        <v>0.03363137328599826</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2279383137.490668</v>
+        <v>1766358881.870096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1336673372348147</v>
+        <v>0.1390885610498443</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04925795538228685</v>
+        <v>0.03121443129055555</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3437061420.841063</v>
+        <v>3791858086.262243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1027730174976507</v>
+        <v>0.1482512504687623</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0274586550587783</v>
+        <v>0.02538777557217969</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>124</v>
+      </c>
+      <c r="J4" t="n">
+        <v>229</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2660341087.934297</v>
+        <v>3133753205.764784</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08303714478798105</v>
+        <v>0.07854984985490067</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04960628730991998</v>
+        <v>0.04960410883781365</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>228</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.57994708861958</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2302680076.463152</v>
+        <v>2004595057.959021</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1325836416408022</v>
+        <v>0.1357590230466532</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05051652857754298</v>
+        <v>0.05193768274381472</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3114460182.138836</v>
+        <v>2384201567.115816</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07049480100378896</v>
+        <v>0.08747441101654661</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04542396301667986</v>
+        <v>0.04795430413648893</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3878112992.309679</v>
+        <v>2513617098.688017</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1389700945580414</v>
+        <v>0.1968039086884686</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03335680022582852</v>
+        <v>0.03305290706091265</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>65</v>
+      </c>
+      <c r="J8" t="n">
+        <v>227</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2048250158.372306</v>
+        <v>2151673437.4793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1354206161573859</v>
+        <v>0.158356010914365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0230484838401989</v>
+        <v>0.03221540996511652</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5470548918.887932</v>
+        <v>4490211852.992394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1409033491806613</v>
+        <v>0.139495155863771</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03435281307795653</v>
+        <v>0.05441777752948614</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>208</v>
+      </c>
+      <c r="J10" t="n">
+        <v>229</v>
+      </c>
+      <c r="K10" t="n">
+        <v>117.8169262543176</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3136445198.38096</v>
+        <v>2731653571.725562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1215567438088988</v>
+        <v>0.1397367693547204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04373775295540915</v>
+        <v>0.03530756220242372</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2005034647.150967</v>
+        <v>3282762793.945158</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1967644180713006</v>
+        <v>0.12529842421673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03623800564054092</v>
+        <v>0.04718858229727761</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5322541631.851098</v>
+        <v>5087631815.394621</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0817389644384182</v>
+        <v>0.07740755815082387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02308812382744747</v>
+        <v>0.02329571148251669</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>116</v>
+      </c>
+      <c r="J13" t="n">
+        <v>228</v>
+      </c>
+      <c r="K13" t="n">
+        <v>110.2502061565842</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2996172856.821061</v>
+        <v>2477219324.067892</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1273774408262514</v>
+        <v>0.183821928957462</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02864192821517782</v>
+        <v>0.03841070462984317</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1447709378.236104</v>
+        <v>1708557125.763957</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09400523689328655</v>
+        <v>0.1025792159544904</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03915970385932833</v>
+        <v>0.03869708486995439</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2605985555.671875</v>
+        <v>2486060095.388591</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09694153962597593</v>
+        <v>0.09114660517695235</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04915878656078154</v>
+        <v>0.03922774310300285</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3460626982.222368</v>
+        <v>3744834961.238496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1232950886904283</v>
+        <v>0.1194008228083088</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04432976408116329</v>
+        <v>0.04662127363282432</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>110</v>
+      </c>
+      <c r="J17" t="n">
+        <v>229</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2852175285.07796</v>
+        <v>3024072728.487481</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11530231904809</v>
+        <v>0.1853516913020228</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03214722789958622</v>
+        <v>0.02542239043132206</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1056655242.939569</v>
+        <v>1017961160.462055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1541850009166576</v>
+        <v>0.1398051984236912</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02130753219378705</v>
+        <v>0.02636215857991861</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2056756394.318383</v>
+        <v>2288691860.551556</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1213998004758471</v>
+        <v>0.1326426080047781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0288125135838138</v>
+        <v>0.02291680038171999</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2607054899.256769</v>
+        <v>2430570095.518968</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06436983972318867</v>
+        <v>0.09866022323787238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03617577400765912</v>
+        <v>0.02801911456592135</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2448161795.484381</v>
+        <v>2837967273.969293</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1389242090450049</v>
+        <v>0.1340066707357982</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03622349638405715</v>
+        <v>0.04957176802892147</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>58</v>
+      </c>
+      <c r="J22" t="n">
+        <v>228</v>
+      </c>
+      <c r="K22" t="n">
+        <v>44.03052853894791</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1445956604.077388</v>
+        <v>1165483704.280995</v>
       </c>
       <c r="F23" t="n">
-        <v>0.117864564632206</v>
+        <v>0.1370707085973737</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03820839607369707</v>
+        <v>0.04220643019542032</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3950604216.97582</v>
+        <v>3121821881.068352</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1178900177364706</v>
+        <v>0.1176768287076084</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0360560254163459</v>
+        <v>0.0248262023284488</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1013848275.410811</v>
+        <v>1118535565.587277</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0953656036322262</v>
+        <v>0.1125605114388365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03006151662046032</v>
+        <v>0.02904330309887017</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1230610552.120483</v>
+        <v>1036488009.96556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1219969123838845</v>
+        <v>0.1053612339474728</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02817510832330443</v>
+        <v>0.02617875817607656</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3407321560.571946</v>
+        <v>3992466161.212091</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1349058446689738</v>
+        <v>0.1250968099998638</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02188960334950822</v>
+        <v>0.01967071989374394</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>92</v>
+      </c>
+      <c r="J27" t="n">
+        <v>228</v>
+      </c>
+      <c r="K27" t="n">
+        <v>81.55601825664671</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2615835772.030085</v>
+        <v>3264917753.531674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1426782880404497</v>
+        <v>0.09811568416097123</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03976807008828342</v>
+        <v>0.04306026724309155</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>226</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5604119438.895182</v>
+        <v>5028648050.158104</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180546543040251</v>
+        <v>0.09600688560420303</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03988598507970637</v>
+        <v>0.04453185039847558</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>218</v>
+      </c>
+      <c r="J29" t="n">
+        <v>229</v>
+      </c>
+      <c r="K29" t="n">
+        <v>120.6361258971093</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1974846068.830705</v>
+        <v>2293143254.630145</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361652161514105</v>
+        <v>0.1001576032635895</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03990232579131549</v>
+        <v>0.03909157669768105</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>931640654.179828</v>
+        <v>1398276564.419847</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1019653412723957</v>
+        <v>0.1101514051160998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05196432860044235</v>
+        <v>0.05197376490158297</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1321481914.610765</v>
+        <v>1416434721.474446</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1123643559162566</v>
+        <v>0.08621445379431983</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03760931198611736</v>
+        <v>0.03466891987902309</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2670775473.588761</v>
+        <v>2286068524.519479</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1457508524866371</v>
+        <v>0.1690149649315538</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04319850598335995</v>
+        <v>0.0538574190008613</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1246062811.068117</v>
+        <v>1329823859.315687</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1007373404998986</v>
+        <v>0.09702260010734076</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02081479633286075</v>
+        <v>0.0170953643050321</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953183040.7886059</v>
+        <v>954810277.6268206</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1185069832609006</v>
+        <v>0.08336415318540707</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04173651011362783</v>
+        <v>0.02737656404377885</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2145678412.47775</v>
+        <v>2598283200.953073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1634460652748131</v>
+        <v>0.1531529845307496</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02747936088477976</v>
+        <v>0.02683905495087091</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2584974544.626088</v>
+        <v>2340543537.114003</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09608285379399888</v>
+        <v>0.0733210691776951</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04148286190198439</v>
+        <v>0.03711560851702002</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1333947403.52492</v>
+        <v>1468014018.980277</v>
       </c>
       <c r="F38" t="n">
-        <v>0.107099114844581</v>
+        <v>0.08497194885404313</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03278568919990033</v>
+        <v>0.03555352906701874</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1696568060.735197</v>
+        <v>1994625861.59483</v>
       </c>
       <c r="F39" t="n">
-        <v>0.123687873435856</v>
+        <v>0.1271667140136487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02226710389888302</v>
+        <v>0.02643890839348953</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1600510541.495981</v>
+        <v>1483556289.882288</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1590633675614659</v>
+        <v>0.1526538666591213</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05829439257843014</v>
+        <v>0.04667532529555717</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1840344676.602835</v>
+        <v>2336432468.240996</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1485945719694087</v>
+        <v>0.1561396300839951</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0323965259502053</v>
+        <v>0.04597236863184318</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3455367330.19283</v>
+        <v>3813350411.995309</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1214109718782397</v>
+        <v>0.1195649158080333</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02810923178622871</v>
+        <v>0.03802683173579584</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>92</v>
+      </c>
+      <c r="J42" t="n">
+        <v>229</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2722429196.508867</v>
+        <v>2395756363.476482</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1601328927786792</v>
+        <v>0.2027104156840555</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02203094160028554</v>
+        <v>0.01801613444359256</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2082556557.462202</v>
+        <v>1684098795.771722</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07067977372515793</v>
+        <v>0.07510675154103415</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02545946694214671</v>
+        <v>0.03654007202136766</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2307071146.281423</v>
+        <v>1604336036.784689</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1588891580593151</v>
+        <v>0.1687984010948466</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05081933573619503</v>
+        <v>0.04132165611017068</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3715969430.993244</v>
+        <v>3466507134.67804</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1601422313444922</v>
+        <v>0.132054978079469</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03776420065875751</v>
+        <v>0.05542113107106834</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>132</v>
+      </c>
+      <c r="J46" t="n">
+        <v>228</v>
+      </c>
+      <c r="K46" t="n">
+        <v>71.97397673966196</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4364787904.264325</v>
+        <v>3892992758.597823</v>
       </c>
       <c r="F47" t="n">
-        <v>0.168824377456726</v>
+        <v>0.1315196436510243</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04844520513055366</v>
+        <v>0.05296977898596078</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>102</v>
+      </c>
+      <c r="J47" t="n">
+        <v>229</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4151120790.202124</v>
+        <v>4310334791.645658</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09756728963501783</v>
+        <v>0.1070795858055899</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02513071921101258</v>
+        <v>0.03441205885901723</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>111</v>
+      </c>
+      <c r="J48" t="n">
+        <v>229</v>
+      </c>
+      <c r="K48" t="n">
+        <v>117.0403908453026</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1419436848.997026</v>
+        <v>1636086511.978185</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1949396828452927</v>
+        <v>0.1270014777822794</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03566580047624601</v>
+        <v>0.03266169212198976</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3964759459.333607</v>
+        <v>3884321505.946795</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1359981241194781</v>
+        <v>0.1607420448209283</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05308275461732827</v>
+        <v>0.03683902130796873</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>228</v>
+      </c>
+      <c r="K50" t="n">
+        <v>90.05103538629159</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1097019680.601602</v>
+        <v>1113298386.290659</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1476611943674655</v>
+        <v>0.1464680706707494</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04522553516971719</v>
+        <v>0.04224646799441026</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3327342142.186108</v>
+        <v>4684293547.697253</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1358100442933198</v>
+        <v>0.09128047058667454</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05950681635609723</v>
+        <v>0.04058046934360685</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>151</v>
+      </c>
+      <c r="J52" t="n">
+        <v>229</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2771954284.380414</v>
+        <v>3288430970.02874</v>
       </c>
       <c r="F53" t="n">
-        <v>0.199057019051864</v>
+        <v>0.2013499508632408</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03495508714913326</v>
+        <v>0.02613320986784058</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>229</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3552072918.049135</v>
+        <v>3873387147.999907</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1639822546561528</v>
+        <v>0.1213603672434341</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05175746899568041</v>
+        <v>0.04071057468612633</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>122</v>
+      </c>
+      <c r="J54" t="n">
+        <v>229</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3108227708.916978</v>
+        <v>3312461306.144735</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1587110376967438</v>
+        <v>0.2096025973393887</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0317546437980261</v>
+        <v>0.02813070298088993</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>102</v>
+      </c>
+      <c r="J55" t="n">
+        <v>229</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302079011.984029</v>
+        <v>1339706205.371533</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1542970734217994</v>
+        <v>0.1448027956767591</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05321985436239642</v>
+        <v>0.03945513059557232</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3583536218.830616</v>
+        <v>2855848747.993076</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1755004176627087</v>
+        <v>0.1705475765027056</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01795932993479575</v>
+        <v>0.01745067481485066</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>90</v>
+      </c>
+      <c r="J57" t="n">
+        <v>228</v>
+      </c>
+      <c r="K57" t="n">
+        <v>48.48004765241852</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1651549393.327662</v>
+        <v>1361020949.407602</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1550205513011458</v>
+        <v>0.2017273915771947</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03859802213175482</v>
+        <v>0.02410561290312217</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3996661924.267931</v>
+        <v>5369707181.355659</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08568030729949888</v>
+        <v>0.09328150908886554</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03220915581472332</v>
+        <v>0.03025088272647002</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>111</v>
+      </c>
+      <c r="J59" t="n">
+        <v>228</v>
+      </c>
+      <c r="K59" t="n">
+        <v>100.6661079160071</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2970503580.451939</v>
+        <v>2576133669.874127</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1647031179265528</v>
+        <v>0.1606327093989969</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02891930313579446</v>
+        <v>0.02246623689542137</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2305464190.379154</v>
+        <v>2099964392.77385</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1514048321497344</v>
+        <v>0.1236136266316954</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02573544325853894</v>
+        <v>0.02117728632155185</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1280359739.333906</v>
+        <v>1939973794.218424</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1528008288758508</v>
+        <v>0.1930413310107856</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04672005307301336</v>
+        <v>0.04468852640093368</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5098412752.392752</v>
+        <v>3570787697.891264</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1041923418817381</v>
+        <v>0.08076697407141566</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03062104940598539</v>
+        <v>0.03994056601365806</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>111</v>
+      </c>
+      <c r="J63" t="n">
+        <v>229</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3757606052.48309</v>
+        <v>4312701817.092402</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1856732537218326</v>
+        <v>0.1595676451446051</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03543524756482673</v>
+        <v>0.03338625349208443</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>113</v>
+      </c>
+      <c r="J64" t="n">
+        <v>228</v>
+      </c>
+      <c r="K64" t="n">
+        <v>105.7884253608036</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3754548989.932411</v>
+        <v>5905399128.514673</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1060403639132199</v>
+        <v>0.1407107662291975</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02685572620965851</v>
+        <v>0.02122332569597155</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>182</v>
+      </c>
+      <c r="J65" t="n">
+        <v>229</v>
+      </c>
+      <c r="K65" t="n">
+        <v>112.7405230389255</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4663801146.260953</v>
+        <v>3957926154.089814</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1329566064036005</v>
+        <v>0.1307219431391579</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03465593917660186</v>
+        <v>0.03287243552788632</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>113</v>
+      </c>
+      <c r="J66" t="n">
+        <v>228</v>
+      </c>
+      <c r="K66" t="n">
+        <v>84.24620343619384</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2517632414.128927</v>
+        <v>2277193717.364628</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09816175284244237</v>
+        <v>0.07660505903991419</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03638326906328695</v>
+        <v>0.05153848318165866</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5891954060.451653</v>
+        <v>5172306233.123022</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1453038459911532</v>
+        <v>0.1263647110885614</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03426647518200829</v>
+        <v>0.04208652684057919</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>115</v>
+      </c>
+      <c r="J68" t="n">
+        <v>229</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1994599327.315723</v>
+        <v>1551763770.191183</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1543184258934354</v>
+        <v>0.1331378145055025</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04281905950889772</v>
+        <v>0.0477406171107732</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2959734782.843138</v>
+        <v>2370746698.011938</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08387771618288667</v>
+        <v>0.07721830276896717</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03939784472571537</v>
+        <v>0.04538252415644095</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>35</v>
+      </c>
+      <c r="J70" t="n">
+        <v>227</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3451288643.972063</v>
+        <v>4783841860.293471</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1320325010021556</v>
+        <v>0.1363805479702357</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02545218457057266</v>
+        <v>0.02114861664295599</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>174</v>
+      </c>
+      <c r="J71" t="n">
+        <v>229</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2261716071.755937</v>
+        <v>2201167566.946993</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09252324944238438</v>
+        <v>0.09045168196239178</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03735180283934202</v>
+        <v>0.03726578993013673</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3453783764.446635</v>
+        <v>2660642384.440345</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1017945125375088</v>
+        <v>0.0997790849029926</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0446904152280264</v>
+        <v>0.04805027633613858</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2737366695.27842</v>
+        <v>3295647012.517113</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1426555362587215</v>
+        <v>0.1851485675362969</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03510184852697484</v>
+        <v>0.03180607202211333</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>66</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2400043147.309622</v>
+        <v>2077643778.334318</v>
       </c>
       <c r="F75" t="n">
-        <v>0.159190033348539</v>
+        <v>0.1460979297828795</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02362105222461601</v>
+        <v>0.03082706858799976</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5103464064.787005</v>
+        <v>5267161530.077708</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116648479601105</v>
+        <v>0.08265286253508963</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02972332073272449</v>
+        <v>0.03107911771193611</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>106</v>
+      </c>
+      <c r="J76" t="n">
+        <v>228</v>
+      </c>
+      <c r="K76" t="n">
+        <v>96.64835284022648</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1661119814.596815</v>
+        <v>1848264508.374181</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1333308406174981</v>
+        <v>0.1810170470595172</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02668175210485176</v>
+        <v>0.02983090185704155</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2909620324.310915</v>
+        <v>4014675940.419246</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1221123153160079</v>
+        <v>0.09445568889517578</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03604733002180328</v>
+        <v>0.03977523767320541</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>115</v>
+      </c>
+      <c r="J78" t="n">
+        <v>228</v>
+      </c>
+      <c r="K78" t="n">
+        <v>95.85234326736224</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1540811015.914038</v>
+        <v>1750356371.428279</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1407277056264009</v>
+        <v>0.1094506931869975</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02448136665763151</v>
+        <v>0.03359096884433563</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4624476520.475302</v>
+        <v>4622257063.20505</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07448830385566792</v>
+        <v>0.1034888377172441</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03817469252405475</v>
+        <v>0.03162549933782402</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>111</v>
+      </c>
+      <c r="J80" t="n">
+        <v>229</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4804666820.043305</v>
+        <v>5021818802.061361</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08892029819191381</v>
+        <v>0.1162897230236662</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02966687416355138</v>
+        <v>0.02640028136180277</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>105</v>
+      </c>
+      <c r="J81" t="n">
+        <v>229</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5233950089.752526</v>
+        <v>5667852581.325056</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2163329751227714</v>
+        <v>0.1662346157777408</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02593008388130252</v>
+        <v>0.02367700267996609</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>171</v>
+      </c>
+      <c r="J82" t="n">
+        <v>229</v>
+      </c>
+      <c r="K82" t="n">
+        <v>113.2888525036087</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2135128930.972599</v>
+        <v>1658905880.94805</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1581578937150182</v>
+        <v>0.1389912100088025</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03834717270935386</v>
+        <v>0.02742724530555038</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2029181271.630154</v>
+        <v>1676043132.978686</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1202112555619181</v>
+        <v>0.1201027110973583</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03282161081342196</v>
+        <v>0.0478027896073414</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3516706165.263745</v>
+        <v>2430194806.450961</v>
       </c>
       <c r="F85" t="n">
-        <v>0.167526820096514</v>
+        <v>0.1559059314528359</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04937369787777247</v>
+        <v>0.05611546763009152</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2035470955.059232</v>
+        <v>1833138404.553785</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1648400598645552</v>
+        <v>0.1573883661481705</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02060306015921323</v>
+        <v>0.02055221957829896</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1343707316.81781</v>
+        <v>1142469557.091716</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1385549322916748</v>
+        <v>0.1461308850317494</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02972990005162531</v>
+        <v>0.02958609015003113</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2558342420.70811</v>
+        <v>2848400539.085738</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1188427076401317</v>
+        <v>0.1184139924404935</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02603777612388568</v>
+        <v>0.02694923944267467</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>227</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2944136631.796453</v>
+        <v>2334064144.211747</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1385096400942833</v>
+        <v>0.1185912824128005</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03482780202720168</v>
+        <v>0.02955304594729441</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2027814297.545165</v>
+        <v>1684493601.027485</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1072518496747674</v>
+        <v>0.1186650358979571</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03681687243265491</v>
+        <v>0.04396590800618006</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1524734842.774764</v>
+        <v>1980213121.73384</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1747863774556269</v>
+        <v>0.1903502905921012</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04784299942526803</v>
+        <v>0.0372944019006192</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1920878480.276304</v>
+        <v>2979256326.724836</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1077706645913521</v>
+        <v>0.1065632912284327</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03191824201763761</v>
+        <v>0.03268075990436748</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3379438142.238233</v>
+        <v>4738999203.331646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1223003839641306</v>
+        <v>0.1334515989106441</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04103899182205446</v>
+        <v>0.04179415235108899</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>102</v>
+      </c>
+      <c r="J93" t="n">
+        <v>228</v>
+      </c>
+      <c r="K93" t="n">
+        <v>106.1493177585996</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1783219256.383466</v>
+        <v>1778472217.16152</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1370478886938979</v>
+        <v>0.1017084104726272</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04074523266619012</v>
+        <v>0.02650617044384167</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2644840011.131465</v>
+        <v>3037429004.514305</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1116578158271378</v>
+        <v>0.1229559250421514</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03553017716277298</v>
+        <v>0.04823541834046074</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1602668510.155355</v>
+        <v>2347958528.552012</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1324711726879529</v>
+        <v>0.1211514349747798</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03832574898580727</v>
+        <v>0.03487268738565833</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4316598069.905446</v>
+        <v>3843385640.4114</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1764119756990033</v>
+        <v>0.1316323509660739</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02513525914214952</v>
+        <v>0.02809736891312571</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>111</v>
+      </c>
+      <c r="J97" t="n">
+        <v>228</v>
+      </c>
+      <c r="K97" t="n">
+        <v>87.24107195479046</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3365380370.156023</v>
+        <v>3509859396.242891</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1039230883839061</v>
+        <v>0.09373377184218998</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02986678629334509</v>
+        <v>0.02140446749326054</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>55</v>
+      </c>
+      <c r="J98" t="n">
+        <v>229</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2450798109.177679</v>
+        <v>2975433714.245966</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11628537817611</v>
+        <v>0.09280119092825877</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02819096655709065</v>
+        <v>0.03146774152939501</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4701696298.176951</v>
+        <v>4698564451.012737</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1719065132907864</v>
+        <v>0.1211433665961549</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02282143036244597</v>
+        <v>0.02413128045752823</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>96</v>
+      </c>
+      <c r="J100" t="n">
+        <v>228</v>
+      </c>
+      <c r="K100" t="n">
+        <v>108.1466091329102</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3061981858.757071</v>
+        <v>2224069009.50173</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1709754665923612</v>
+        <v>0.2221429169843999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04324208673408116</v>
+        <v>0.04036521610819049</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
